--- a/Graficando_1/hijosYhijas.xlsx
+++ b/Graficando_1/hijosYhijas.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="descarga" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="resumen" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="detalle" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="50">
-  <si>
-    <t>Total de hijos e hijas nacidos vivos tenidos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="50">
+  <si>
+    <t>total de hijos e hijas nacidos vivos tenidos</t>
   </si>
   <si>
     <t>CEPAL/CELADE Redatam+SP 11/3/2015</t>
@@ -47,7 +48,100 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>de Total de hijos e hijas nacidos vivos tenidos</t>
+    <t>de total de hijos e hijas nacidos vivos tenidos</t>
+  </si>
+  <si>
+    <t>por Provincia</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>leer.escr</t>
+  </si>
+  <si>
+    <t>hijos</t>
+  </si>
+  <si>
+    <t>Azuay</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Cañar</t>
+  </si>
+  <si>
+    <t>Carchi</t>
+  </si>
+  <si>
+    <t>Cotopaxi</t>
+  </si>
+  <si>
+    <t>Chimborazo</t>
+  </si>
+  <si>
+    <t>El Oro</t>
+  </si>
+  <si>
+    <t>Esmeraldas</t>
+  </si>
+  <si>
+    <t>Guayas</t>
+  </si>
+  <si>
+    <t>Imbabura</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Los Rios</t>
+  </si>
+  <si>
+    <t>Manabi</t>
+  </si>
+  <si>
+    <t>Morona Santiago</t>
+  </si>
+  <si>
+    <t>Napo</t>
+  </si>
+  <si>
+    <t>Pastaza</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>Tungurahua</t>
+  </si>
+  <si>
+    <t>Zamora Chinchipe</t>
+  </si>
+  <si>
+    <t>Galápagos</t>
+  </si>
+  <si>
+    <t>Sucumbios</t>
+  </si>
+  <si>
+    <t>Orellana</t>
+  </si>
+  <si>
+    <t>Santa Domingo</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>Zonas No Delimitadas</t>
   </si>
   <si>
     <t>por Sabe leer y escribir</t>
@@ -56,124 +150,32 @@
     <t>por Area Urbana o Rural</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>leer.escr</t>
-  </si>
-  <si>
-    <t>hijos</t>
-  </si>
-  <si>
-    <t>Azuay</t>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>juntos</t>
   </si>
   <si>
     <t>urbana</t>
   </si>
   <si>
     <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Bolivar</t>
-  </si>
-  <si>
-    <t>Ca-ar</t>
-  </si>
-  <si>
-    <t>Carchi</t>
-  </si>
-  <si>
-    <t>Cotopaxi</t>
-  </si>
-  <si>
-    <t>Chimborazo</t>
-  </si>
-  <si>
-    <t>El Oro</t>
-  </si>
-  <si>
-    <t>Esmeraldas</t>
-  </si>
-  <si>
-    <t>Guayas</t>
-  </si>
-  <si>
-    <t>Imbabura</t>
-  </si>
-  <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Los Rios</t>
-  </si>
-  <si>
-    <t>Manabi</t>
-  </si>
-  <si>
-    <t>Morona Santiago</t>
-  </si>
-  <si>
-    <t>Napo</t>
-  </si>
-  <si>
-    <t>Pastaza</t>
-  </si>
-  <si>
-    <t>Pichincha</t>
-  </si>
-  <si>
-    <t>Tungurahua</t>
-  </si>
-  <si>
-    <t>Zamora Chinchipe</t>
-  </si>
-  <si>
-    <t>Galápagos</t>
-  </si>
-  <si>
-    <t>Sucumbios</t>
-  </si>
-  <si>
-    <t>Orellana</t>
-  </si>
-  <si>
-    <t>Santa Domingo</t>
-  </si>
-  <si>
-    <t>Santa Elena</t>
-  </si>
-  <si>
-    <t>Zonas No Delimitadas</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -253,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +269,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,10 +293,470 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.70918367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A262" activeCellId="0" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -361,96 +827,96 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.42</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.61</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.43</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.55</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3.33</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,13 +924,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.59</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,531 +938,531 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.62</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>3.08</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.65</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.65</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.67</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.52</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3.56</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.57</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.44</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3.17</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.46</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.58</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1.71</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1.98</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.04</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1.66</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2.84</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1.68</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1.59</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1.63</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1.57</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1.58</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1.84</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>3.37</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1.88</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1.72</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1.76</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1.86</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1.88</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1.73</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.61</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1.74</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,66 +1484,66 @@
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1.69</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>3.77</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1.73</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1.46</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>3.21</v>
@@ -1085,167 +1551,167 @@
     </row>
     <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1.48</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1.41</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1.43</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1.94</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1.95</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1.64</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1.65</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1.94</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>3.46</v>
@@ -1253,209 +1719,209 @@
     </row>
     <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1.99</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>3.66</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>2.02</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1.82</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1.86</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1.92</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>3.27</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1.95</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1.63</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>3.09</v>
@@ -1463,72 +1929,72 @@
     </row>
     <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3.79</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,545 +2002,545 @@
         <v>22</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>4.37</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1.67</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>3.61</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1.99</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>3.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>1.84</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>4.59</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>4.2</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>2.15</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2.58</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>4.52</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>3.46</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>4.59</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>2.27</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>3.01</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3.79</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>2.95</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>3.02</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>2.62</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,531 +2548,531 @@
         <v>35</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>3.94</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>2.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>5.01</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>3.77</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>3.71</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>21</v>
+      <c r="C150" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>2.71</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>21</v>
+      <c r="C153" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>2.79</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>3.56</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>21</v>
+      <c r="C156" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>2.54</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>4.6</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>21</v>
+      <c r="C159" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>4.63</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>21</v>
+      <c r="C162" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>2.89</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>2.09</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>3.88</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>21</v>
+      <c r="C165" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2.2</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>3.16</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>21</v>
+      <c r="C168" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>3.94</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>21</v>
+      <c r="C171" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>3.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>3.52</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,332 +3080,332 @@
         <v>22</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>4.27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>2.04</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>3.51</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>3.34</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>1.73</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>4.48</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>4.1</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>1.77</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>4.27</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>1.75</v>
@@ -2947,125 +3413,125 @@
     </row>
     <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>4.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>3.63</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>2.04</v>
@@ -3073,72 +3539,72 @@
     </row>
     <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>3.59</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>1.94</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>2.51</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>4.23</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,13 +3612,13 @@
         <v>34</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,416 +3626,416 @@
         <v>35</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>4.77</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>3.48</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>3.56</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>4.49</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>2.96</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>2.25</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>4.28</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>4.37</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>3.75</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>3.21</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>2.02</v>
@@ -3577,88 +4043,67 @@
     </row>
     <row r="247" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>3.94</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D250" s="2" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D251" s="2" t="n">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D252" s="2" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Graficando_1/hijosYhijas.xlsx
+++ b/Graficando_1/hijosYhijas.xlsx
@@ -753,13 +753,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A262" activeCellId="0" sqref="A262"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A249" activeCellId="0" sqref="A249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.70918367346939"/>
@@ -770,11 +770,13 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>2</v>
@@ -835,6 +837,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>12</v>
@@ -4083,27 +4086,6 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
